--- a/invnetory.xlsx
+++ b/invnetory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="8460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>item1</t>
   </si>
 </sst>
 </file>
@@ -390,40 +393,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>

--- a/invnetory.xlsx
+++ b/invnetory.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>item_one</t>
   </si>
 </sst>
 </file>
@@ -390,40 +393,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
